--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b5f718507fec167/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mithu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{4B57430A-F579-4B8A-B6A0-DD3C02133264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE53517E-1F54-463A-A709-D12B0298468F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D752171-277A-4ABC-9243-4DBF0FE7FA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{686DBF80-B987-459E-94DD-CDB8202FD061}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{686DBF80-B987-459E-94DD-CDB8202FD061}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Platform" sheetId="1" r:id="rId1"/>
     <sheet name="Menu" sheetId="2" r:id="rId2"/>
+    <sheet name="Single Owner" sheetId="3" r:id="rId3"/>
+    <sheet name="people search" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="541">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1039,13 +1041,634 @@
   </si>
   <si>
     <t>Verify menu refreshes to show current state when manually refreshed</t>
+  </si>
+  <si>
+    <t>Single Ownerr</t>
+  </si>
+  <si>
+    <t>SOW-01</t>
+  </si>
+  <si>
+    <t>Verify single owner list display</t>
+  </si>
+  <si>
+    <t>Check if groups with single owners are correctly displayed in the list</t>
+  </si>
+  <si>
+    <t>Verify that each group shows its privacy status (Private)</t>
+  </si>
+  <si>
+    <t>Confirm that "Action required" button appears for each single owner group</t>
+  </si>
+  <si>
+    <t>SOW-02</t>
+  </si>
+  <si>
+    <t>Validate action required functionality</t>
+  </si>
+  <si>
+    <t>Click the "Action required" button and verify it opens the add owner interface</t>
+  </si>
+  <si>
+    <t>Attempt to add a second owner and verify the process completes successfully</t>
+  </si>
+  <si>
+    <t>Verify the group disappears from single owner list after adding second owner</t>
+  </si>
+  <si>
+    <t>SOW-03</t>
+  </si>
+  <si>
+    <t>Test governance notification</t>
+  </si>
+  <si>
+    <t>Verify the instruction text displays correctly explaining Novartis groups governance</t>
+  </si>
+  <si>
+    <t>Confirm the instruction text states "at least two owners for each Group" requirement</t>
+  </si>
+  <si>
+    <t>Verify the instruction clearly indicates how to resolve the single owner issue</t>
+  </si>
+  <si>
+    <t>SOW-04</t>
+  </si>
+  <si>
+    <t>Test navigation and filtering</t>
+  </si>
+  <si>
+    <t>Verify navigation between different tabs (Teams, Engage, SharePoint, etc.) works properly</t>
+  </si>
+  <si>
+    <t>Check if the count indicators beside each tab update correctly</t>
+  </si>
+  <si>
+    <t>Test if filtering or searching for specific groups works as expected</t>
+  </si>
+  <si>
+    <t>SOW-05</t>
+  </si>
+  <si>
+    <t>Test responsive design</t>
+  </si>
+  <si>
+    <t>Verify the single owner list displays properly on different screen sizes</t>
+  </si>
+  <si>
+    <t>Test the "Action required" button functionality on mobile devices</t>
+  </si>
+  <si>
+    <t>Confirm that all text and elements are readable on smaller screens</t>
+  </si>
+  <si>
+    <t>Group Detail Popup</t>
+  </si>
+  <si>
+    <t>Verify Group Details popup appearance</t>
+  </si>
+  <si>
+    <t>Click the "Action required" button and check if the Group Details popup opens correctly</t>
+  </si>
+  <si>
+    <t>Verify the popup displays the correct group name (finsecapptool-qa)</t>
+  </si>
+  <si>
+    <t>Confirm the popup shows the group URL and classification information</t>
+  </si>
+  <si>
+    <t>Validate Group Information display</t>
+  </si>
+  <si>
+    <t>Verify the Title field displays the correct group name</t>
+  </si>
+  <si>
+    <t>Check if all required fields (Division, Function, Country) are present</t>
+  </si>
+  <si>
+    <t>Verify Data Type, Business Criticality, and Data Privacy fields are displayed</t>
+  </si>
+  <si>
+    <t>Confirm the current owner is correctly displayed in the Owners section</t>
+  </si>
+  <si>
+    <t>Test "Add Additional Owner" functionality</t>
+  </si>
+  <si>
+    <t>Click the "Add Additional Owner" button and verify it opens the owner selection interface</t>
+  </si>
+  <si>
+    <t>Verify the instruction "Please add additional owners from Owners section" is displayed</t>
+  </si>
+  <si>
+    <t>Test adding a new owner and verify they appear in the owners list</t>
+  </si>
+  <si>
+    <t>Verify that after adding a second owner, the group is removed from single owner list</t>
+  </si>
+  <si>
+    <t>Validate compliance information</t>
+  </si>
+  <si>
+    <t>Verify the compliance checkbox and its associated text is displayed</t>
+  </si>
+  <si>
+    <t>Check if all compliance links (Novartis classification guidelines, Global Data Privacy Principles, etc.) are functional</t>
+  </si>
+  <si>
+    <t>Verify the checkbox can be selected/deselected</t>
+  </si>
+  <si>
+    <t>Test Group Settings section</t>
+  </si>
+  <si>
+    <t>Verify External Sharing Updates section displays correctly</t>
+  </si>
+  <si>
+    <t>Test toggling "Enable and Access in Outlook (OWA)" option</t>
+  </si>
+  <si>
+    <t>Test toggling "Searchable in Outlook Address Book (GAL)" option</t>
+  </si>
+  <si>
+    <t>Verify information icons display helpful tooltips when clicked</t>
+  </si>
+  <si>
+    <t>SOW-06</t>
+  </si>
+  <si>
+    <t>Test Save and Delete functionality</t>
+  </si>
+  <si>
+    <t>Verify the Save button is enabled only after required changes are made</t>
+  </si>
+  <si>
+    <t>Test the Delete button functionality and confirm deletion prompt appears</t>
+  </si>
+  <si>
+    <t>Verify successful save operation after adding a second owner</t>
+  </si>
+  <si>
+    <t>Test cancellation of the popup using the X button in the top-right corner</t>
+  </si>
+  <si>
+    <t>People Search</t>
+  </si>
+  <si>
+    <t>PS-01</t>
+  </si>
+  <si>
+    <t>Search initialization and input validation</t>
+  </si>
+  <si>
+    <t>Verify the search field is visible and accepts user input</t>
+  </si>
+  <si>
+    <t>Test that search begins after entering at least 3 characters</t>
+  </si>
+  <si>
+    <t>Verify placeholder text is displayed when search field is empty</t>
+  </si>
+  <si>
+    <t>Test special characters and numbers in search field</t>
+  </si>
+  <si>
+    <t>PS-02</t>
+  </si>
+  <si>
+    <t>Search results display</t>
+  </si>
+  <si>
+    <t>Verify search results appear as dropdown below search field</t>
+  </si>
+  <si>
+    <t>Confirm user names and titles are displayed correctly in search results</t>
+  </si>
+  <si>
+    <t>Test that results update dynamically as more characters are typed</t>
+  </si>
+  <si>
+    <t>Verify search results are sorted in a logical order (alphabetical or relevance)</t>
+  </si>
+  <si>
+    <t>PS-03</t>
+  </si>
+  <si>
+    <t>User selection functionality</t>
+  </si>
+  <si>
+    <t>Click on a user from search results and verify user profile loads</t>
+  </si>
+  <si>
+    <t>Verify correct user information displays (matching the selected user)</t>
+  </si>
+  <si>
+    <t>Test selecting different users consecutively from search results</t>
+  </si>
+  <si>
+    <t>Verify the search field maintains the search term after user selection</t>
+  </si>
+  <si>
+    <t>PS-04</t>
+  </si>
+  <si>
+    <t>"See All" functionality</t>
+  </si>
+  <si>
+    <t>Verify "See All" option appears when multiple results are found</t>
+  </si>
+  <si>
+    <t>Click "See All" and confirm it opens a new users list screen</t>
+  </si>
+  <si>
+    <t>Test navigation back from users list screen to main search</t>
+  </si>
+  <si>
+    <t>Verify search term persists when navigating to and from users list</t>
+  </si>
+  <si>
+    <t>PS-05</t>
+  </si>
+  <si>
+    <t>User profile information display</t>
+  </si>
+  <si>
+    <t>Verify user profile shows correct name, title, and department</t>
+  </si>
+  <si>
+    <t>Confirm user profile displays all required fields (IDs, organizational details)</t>
+  </si>
+  <si>
+    <t>Test that profile tabs (Profile, Organization, Schedule) work correctly</t>
+  </si>
+  <si>
+    <t>Verify all user information sections display properly (User Information, Organizational Detail, etc.)</t>
+  </si>
+  <si>
+    <t>PS-06</t>
+  </si>
+  <si>
+    <t>Profile navigation and interaction</t>
+  </si>
+  <si>
+    <t>Test clicking on different tabs within the user profile</t>
+  </si>
+  <si>
+    <t>Verify contact information (email) is clickable and functions correctly</t>
+  </si>
+  <si>
+    <t>Test any interactive elements within the profile (links, buttons)</t>
+  </si>
+  <si>
+    <t>Verify professional skills and other skills sections display correctly</t>
+  </si>
+  <si>
+    <t>PS-07</t>
+  </si>
+  <si>
+    <t>Performance and responsiveness</t>
+  </si>
+  <si>
+    <t>Test search response time with various search terms</t>
+  </si>
+  <si>
+    <t>Verify profile loading time after selecting a user</t>
+  </si>
+  <si>
+    <t>Test behavior under poor network conditions</t>
+  </si>
+  <si>
+    <t>Verify the interface is responsive on different screen sizes</t>
+  </si>
+  <si>
+    <t>PS-08</t>
+  </si>
+  <si>
+    <t>Edge cases and error handling</t>
+  </si>
+  <si>
+    <t>Test search with no matching results</t>
+  </si>
+  <si>
+    <t>Verify appropriate message displays when no results are found</t>
+  </si>
+  <si>
+    <t>Test behavior when selecting a user with incomplete profile information</t>
+  </si>
+  <si>
+    <t>Verify system behavior when attempting to search while offline</t>
+  </si>
+  <si>
+    <t>Schedule Tab</t>
+  </si>
+  <si>
+    <t>SCH-01</t>
+  </si>
+  <si>
+    <t>Schedule tab navigation</t>
+  </si>
+  <si>
+    <t>Click on the Schedule tab and verify it becomes active</t>
+  </si>
+  <si>
+    <t>Verify the tab displays the user's schedule information correctly</t>
+  </si>
+  <si>
+    <t>Confirm switching between Profile, Organization, and Schedule tabs works properly</t>
+  </si>
+  <si>
+    <t>SCH-02</t>
+  </si>
+  <si>
+    <t>Date and timing display</t>
+  </si>
+  <si>
+    <t>Verify the date displays correctly (20-May-2025)</t>
+  </si>
+  <si>
+    <t>Confirm timing range displays properly (11:00 - 20:30)</t>
+  </si>
+  <si>
+    <t>Test date format consistency across different user profiles</t>
+  </si>
+  <si>
+    <t>SCH-03</t>
+  </si>
+  <si>
+    <t>Schedule grid visualization</t>
+  </si>
+  <si>
+    <t>Verify hourly time slots (1p, 2p, 3p, etc.) display correctly</t>
+  </si>
+  <si>
+    <t>Confirm color-coding legend appears and matches schedule blocks (Free, Busy, OOF, etc.)</t>
+  </si>
+  <si>
+    <t>Test that schedule blocks accurately reflect the user's availability</t>
+  </si>
+  <si>
+    <t>SCH-04</t>
+  </si>
+  <si>
+    <t>Schedule status indicators</t>
+  </si>
+  <si>
+    <t>Verify "Free" status is correctly color-coded and displayed</t>
+  </si>
+  <si>
+    <t>Test "OOF" (Out of Office) status displays with proper color</t>
+  </si>
+  <si>
+    <t>Confirm "Working Outside" status shows with correct indicator</t>
+  </si>
+  <si>
+    <t>Verify "Tentative" and "Unknown" statuses display properly</t>
+  </si>
+  <si>
+    <t>SCH-05</t>
+  </si>
+  <si>
+    <t>Time slot interaction</t>
+  </si>
+  <si>
+    <t>Click on different time slots and verify any popup or details that appear</t>
+  </si>
+  <si>
+    <t>Test hovering over scheduled blocks to see additional information</t>
+  </si>
+  <si>
+    <t>Verify interaction with occupied time slots shows meeting/event details</t>
+  </si>
+  <si>
+    <t>SCH-06</t>
+  </si>
+  <si>
+    <t>Schedule navigation</t>
+  </si>
+  <si>
+    <t>Test navigation to different days (if available)</t>
+  </si>
+  <si>
+    <t>Verify any date selection functionality works correctly</t>
+  </si>
+  <si>
+    <t>Test scrolling through longer schedules if applicable</t>
+  </si>
+  <si>
+    <t>SCH-07</t>
+  </si>
+  <si>
+    <t>Schedule refresh functionality</t>
+  </si>
+  <si>
+    <t>Test any refresh button or auto-refresh functionality</t>
+  </si>
+  <si>
+    <t>Verify schedule updates when changes are made elsewhere</t>
+  </si>
+  <si>
+    <t>Confirm real-time updates appear correctly</t>
+  </si>
+  <si>
+    <t>SCH-08</t>
+  </si>
+  <si>
+    <t>Responsive design</t>
+  </si>
+  <si>
+    <t>Test schedule display on different screen sizes</t>
+  </si>
+  <si>
+    <t>Verify time slot labels remain visible when resizing</t>
+  </si>
+  <si>
+    <t>Confirm color legend remains accessible on smaller screens</t>
+  </si>
+  <si>
+    <t>SCH-09</t>
+  </si>
+  <si>
+    <t>Accessibility features</t>
+  </si>
+  <si>
+    <t>Test keyboard navigation through schedule grid</t>
+  </si>
+  <si>
+    <t>Verify screen reader compatibility with schedule elements</t>
+  </si>
+  <si>
+    <t>Confirm color contrast meets accessibility standards</t>
+  </si>
+  <si>
+    <t>SCH-10</t>
+  </si>
+  <si>
+    <t>Integration with calendar systems</t>
+  </si>
+  <si>
+    <t>Verify schedule reflects updates from connected calendar systems</t>
+  </si>
+  <si>
+    <t>Test synchronization timing between systems</t>
+  </si>
+  <si>
+    <t>Confirm schedule accuracy compared to source calendar</t>
+  </si>
+  <si>
+    <t>See All User list</t>
+  </si>
+  <si>
+    <t>SA-01</t>
+  </si>
+  <si>
+    <t>"See All" button visibility</t>
+  </si>
+  <si>
+    <t>Verify "See All" button appears when multiple search results are found</t>
+  </si>
+  <si>
+    <t>Test "See All" button visibility threshold (minimum number of results needed)</t>
+  </si>
+  <si>
+    <t>Confirm "See All" button is properly styled and positioned</t>
+  </si>
+  <si>
+    <t>SA-02</t>
+  </si>
+  <si>
+    <t>"See All" navigation functionality</t>
+  </si>
+  <si>
+    <t>Click "See All" button and verify it opens the complete search results list page</t>
+  </si>
+  <si>
+    <t>Confirm the search term is maintained when navigating to full results page</t>
+  </si>
+  <si>
+    <t>Test back navigation from full results page to main search</t>
+  </si>
+  <si>
+    <t>SA-03</t>
+  </si>
+  <si>
+    <t>Complete search results list display</t>
+  </si>
+  <si>
+    <t>Verify all matching results appear in the full search results list</t>
+  </si>
+  <si>
+    <t>Confirm user information (ID, name, Gen tag) displays correctly for each result</t>
+  </si>
+  <si>
+    <t>Test that contact icons (email, phone) are visible for each user in the list</t>
+  </si>
+  <si>
+    <t>SA-04</t>
+  </si>
+  <si>
+    <t>Pagination functionality</t>
+  </si>
+  <si>
+    <t>Verify pagination controls (1, 2, 3, 4, 5, ..., 10, &gt;) appear when results exceed page limit</t>
+  </si>
+  <si>
+    <t>Test navigation between pages using pagination controls</t>
+  </si>
+  <si>
+    <t>Confirm current page is highlighted in pagination controls</t>
+  </si>
+  <si>
+    <t>Test the "&gt;" button navigates to the next page of results</t>
+  </si>
+  <si>
+    <t>SA-05</t>
+  </si>
+  <si>
+    <t>User selection from full results list</t>
+  </si>
+  <si>
+    <t>Click on a user from the full results list and verify correct profile loads</t>
+  </si>
+  <si>
+    <t>Test selecting users from different pages of the results</t>
+  </si>
+  <si>
+    <t>Verify contact icons (email, phone) functionality for each user</t>
+  </si>
+  <si>
+    <t>SA-06</t>
+  </si>
+  <si>
+    <t>Search refinement from full results page</t>
+  </si>
+  <si>
+    <t>Test ability to modify search term from the full results page</t>
+  </si>
+  <si>
+    <t>Verify results update dynamically when search term is modified</t>
+  </si>
+  <si>
+    <t>Confirm search field retains focus after search refinement</t>
+  </si>
+  <si>
+    <t>SA-07</t>
+  </si>
+  <si>
+    <t>Test loading time of full results page with various result quantities</t>
+  </si>
+  <si>
+    <t>Verify scrolling performance with large result sets</t>
+  </si>
+  <si>
+    <t>Test responsiveness of full results page on different screen sizes</t>
+  </si>
+  <si>
+    <t>SA-08</t>
+  </si>
+  <si>
+    <t>Visual consistency</t>
+  </si>
+  <si>
+    <t>Verify consistent formatting of user entries across all pages</t>
+  </si>
+  <si>
+    <t>Confirm user avatars/icons display properly for all results</t>
+  </si>
+  <si>
+    <t>Test visual alignment of all elements in the results list</t>
+  </si>
+  <si>
+    <t>SA-09</t>
+  </si>
+  <si>
+    <t>Filtering and sorting options</t>
+  </si>
+  <si>
+    <t>Test any available filtering options on the full results page</t>
+  </si>
+  <si>
+    <t>Verify sorting functionality if available (alphabetical, relevance)</t>
+  </si>
+  <si>
+    <t>Confirm filter/sort settings persist when navigating between pages</t>
+  </si>
+  <si>
+    <t>SA-10</t>
+  </si>
+  <si>
+    <t>Test keyboard navigation through the full results list</t>
+  </si>
+  <si>
+    <t>Verify screen reader compatibility with search results</t>
+  </si>
+  <si>
+    <t>Test focus indicators for interactive elements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1075,6 +1698,12 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="FkGrotesk"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1117,7 +1746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1132,6 +1761,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1710,12 +2348,12 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1">
       <c r="A20" s="5"/>
@@ -2085,20 +2723,20 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1">
       <c r="A52" s="5"/>
@@ -2244,12 +2882,12 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" customHeight="1">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1">
       <c r="A65" s="5"/>
@@ -2325,12 +2963,12 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
     </row>
     <row r="73" spans="1:4" ht="30" customHeight="1">
       <c r="A73" s="5"/>
@@ -2476,12 +3114,12 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
     </row>
     <row r="86" spans="1:4" ht="30" customHeight="1">
       <c r="A86" s="5"/>
@@ -2587,8 +3225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8152F7A3-683F-4DE9-9E4A-6D3FF8595106}">
   <dimension ref="A2:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -2600,12 +3238,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="30" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
       <c r="A3" s="5"/>
@@ -2821,12 +3459,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1">
       <c r="A21" s="5"/>
@@ -2986,12 +3624,12 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1">
       <c r="A35" s="5"/>
@@ -3123,12 +3761,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1">
       <c r="A47" s="5"/>
@@ -3268,4 +3906,1562 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4391A413-443A-4C1A-B7D5-FDCAEB1AF2EC}">
+  <dimension ref="A1:D57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:D57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27.6">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="55.8" thickBot="1">
+      <c r="A5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="83.4" thickBot="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" ht="124.8" thickBot="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="69.599999999999994" thickBot="1">
+      <c r="A9" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" ht="111" thickBot="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="124.8" thickBot="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" ht="124.8" thickBot="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" ht="55.8" thickBot="1">
+      <c r="A13" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" ht="138.6" thickBot="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" ht="152.4" thickBot="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" ht="124.8" thickBot="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="55.8" thickBot="1">
+      <c r="A17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" ht="138.6" thickBot="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="42" thickBot="1">
+      <c r="A21" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" ht="124.8" thickBot="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" ht="111" thickBot="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" ht="110.4">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="27.6">
+      <c r="A29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="83.4" thickBot="1">
+      <c r="A30" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" ht="138.6" thickBot="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" ht="111" thickBot="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" ht="124.8" thickBot="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" ht="55.8" thickBot="1">
+      <c r="A34" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" ht="83.4" thickBot="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" ht="111" thickBot="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" ht="111" thickBot="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" ht="69.599999999999994" thickBot="1">
+      <c r="A39" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" ht="138.6" thickBot="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" ht="138.6" thickBot="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" ht="111" thickBot="1">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" ht="124.8" thickBot="1">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" ht="55.8" thickBot="1">
+      <c r="A44" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" ht="180" thickBot="1">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" ht="69.599999999999994" thickBot="1">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" ht="42" thickBot="1">
+      <c r="A48" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" ht="124.8" thickBot="1">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" ht="111" thickBot="1">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" ht="55.8" thickBot="1">
+      <c r="A53" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" ht="111" thickBot="1">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" ht="124.8" thickBot="1">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" ht="111" thickBot="1">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" ht="124.2">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11378C6-8788-4669-AA1D-80C5F6C80A2E}">
+  <dimension ref="A1:D140"/>
+  <sheetViews>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:D140"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27.6">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="55.8" thickBot="1">
+      <c r="A4" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" ht="83.4" thickBot="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" ht="69.599999999999994" thickBot="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="42" thickBot="1">
+      <c r="A9" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="111" thickBot="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" ht="124.8" thickBot="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" ht="55.8" thickBot="1">
+      <c r="A14" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" ht="124.8" thickBot="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="111" thickBot="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="42" thickBot="1">
+      <c r="A19" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="83.4" thickBot="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" ht="124.8" thickBot="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" ht="55.8" thickBot="1">
+      <c r="A24" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" ht="111" thickBot="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" ht="111" thickBot="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" ht="166.2" thickBot="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" ht="55.8" thickBot="1">
+      <c r="A29" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" ht="83.4" thickBot="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" ht="111" thickBot="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" ht="111" thickBot="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" ht="55.8" thickBot="1">
+      <c r="A34" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" ht="83.4" thickBot="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" ht="83.4" thickBot="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" ht="69.599999999999994" thickBot="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" ht="42" thickBot="1">
+      <c r="A39" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" ht="55.8" thickBot="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" ht="124.8" thickBot="1">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" ht="110.4">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="27.6">
+      <c r="A50" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="42" thickBot="1">
+      <c r="A51" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" ht="124.8" thickBot="1">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" ht="42" thickBot="1">
+      <c r="A55" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" ht="83.4" thickBot="1">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" ht="55.8" thickBot="1">
+      <c r="A59" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" ht="152.4" thickBot="1">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" ht="42" thickBot="1">
+      <c r="A63" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:4" ht="111" thickBot="1">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4" ht="28.2" thickBot="1">
+      <c r="A68" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4" ht="124.8" thickBot="1">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4" ht="111" thickBot="1">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:4" ht="28.2" thickBot="1">
+      <c r="A72" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:4" ht="69.599999999999994" thickBot="1">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:4" ht="83.4" thickBot="1">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:4" ht="55.8" thickBot="1">
+      <c r="A76" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:4" ht="69.599999999999994" thickBot="1">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4" ht="28.2" thickBot="1">
+      <c r="A80" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" ht="83.4" thickBot="1">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="1:4" ht="83.4" thickBot="1">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="1:4" ht="28.2" thickBot="1">
+      <c r="A84" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="1:4" ht="83.4" thickBot="1">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:4" ht="55.8" thickBot="1">
+      <c r="A88" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:4" ht="111" thickBot="1">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="1:4" ht="83.4" thickBot="1">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:4" ht="82.8">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="27.6">
+      <c r="A99" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="42" thickBot="1">
+      <c r="A100" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4" ht="111" thickBot="1">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:4" ht="111" thickBot="1">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:4" ht="83.4" thickBot="1">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:4" ht="55.8" thickBot="1">
+      <c r="A104" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="1:4" ht="124.8" thickBot="1">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="1:4" ht="124.8" thickBot="1">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="1:4" ht="55.8" thickBot="1">
+      <c r="A108" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:4" ht="138.6" thickBot="1">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="1:4" ht="111" thickBot="1">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:4" ht="42" thickBot="1">
+      <c r="A112" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+    </row>
+    <row r="113" spans="1:4" ht="138.6" thickBot="1">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+    </row>
+    <row r="114" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+    </row>
+    <row r="115" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+    </row>
+    <row r="116" spans="1:4" ht="83.4" thickBot="1">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+    </row>
+    <row r="117" spans="1:4" ht="55.8" thickBot="1">
+      <c r="A117" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+    </row>
+    <row r="118" spans="1:4" ht="111" thickBot="1">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+    </row>
+    <row r="119" spans="1:4" ht="83.4" thickBot="1">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+    </row>
+    <row r="120" spans="1:4" ht="111" thickBot="1">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+    </row>
+    <row r="121" spans="1:4" ht="69.599999999999994" thickBot="1">
+      <c r="A121" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+    </row>
+    <row r="122" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A122" s="7"/>
+      <c r="B122" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+    </row>
+    <row r="123" spans="1:4" ht="111" thickBot="1">
+      <c r="A123" s="7"/>
+      <c r="B123" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+    </row>
+    <row r="124" spans="1:4" ht="83.4" thickBot="1">
+      <c r="A124" s="7"/>
+      <c r="B124" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+    </row>
+    <row r="125" spans="1:4" ht="55.8" thickBot="1">
+      <c r="A125" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+    </row>
+    <row r="126" spans="1:4" ht="111" thickBot="1">
+      <c r="A126" s="7"/>
+      <c r="B126" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+    </row>
+    <row r="127" spans="1:4" ht="83.4" thickBot="1">
+      <c r="A127" s="7"/>
+      <c r="B127" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+    </row>
+    <row r="128" spans="1:4" ht="111" thickBot="1">
+      <c r="A128" s="7"/>
+      <c r="B128" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+    </row>
+    <row r="129" spans="1:4" ht="42" thickBot="1">
+      <c r="A129" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+    </row>
+    <row r="130" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A130" s="7"/>
+      <c r="B130" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+    </row>
+    <row r="131" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A131" s="7"/>
+      <c r="B131" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+    </row>
+    <row r="132" spans="1:4" ht="83.4" thickBot="1">
+      <c r="A132" s="7"/>
+      <c r="B132" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+    </row>
+    <row r="133" spans="1:4" ht="42" thickBot="1">
+      <c r="A133" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+    </row>
+    <row r="134" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A134" s="7"/>
+      <c r="B134" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+    </row>
+    <row r="135" spans="1:4" ht="111" thickBot="1">
+      <c r="A135" s="7"/>
+      <c r="B135" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+    </row>
+    <row r="136" spans="1:4" ht="111" thickBot="1">
+      <c r="A136" s="7"/>
+      <c r="B136" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+    </row>
+    <row r="137" spans="1:4" ht="28.2" thickBot="1">
+      <c r="A137" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+    </row>
+    <row r="138" spans="1:4" ht="83.4" thickBot="1">
+      <c r="A138" s="7"/>
+      <c r="B138" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+    </row>
+    <row r="139" spans="1:4" ht="97.2" thickBot="1">
+      <c r="A139" s="7"/>
+      <c r="B139" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+    </row>
+    <row r="140" spans="1:4" ht="69">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -5,18 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mithu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b5f718507fec167/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D752171-277A-4ABC-9243-4DBF0FE7FA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{4B57430A-F579-4B8A-B6A0-DD3C02133264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE53517E-1F54-463A-A709-D12B0298468F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{686DBF80-B987-459E-94DD-CDB8202FD061}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{686DBF80-B987-459E-94DD-CDB8202FD061}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Platform" sheetId="1" r:id="rId1"/>
     <sheet name="Menu" sheetId="2" r:id="rId2"/>
-    <sheet name="Single Owner" sheetId="3" r:id="rId3"/>
-    <sheet name="people search" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="334">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1041,634 +1039,13 @@
   </si>
   <si>
     <t>Verify menu refreshes to show current state when manually refreshed</t>
-  </si>
-  <si>
-    <t>Single Ownerr</t>
-  </si>
-  <si>
-    <t>SOW-01</t>
-  </si>
-  <si>
-    <t>Verify single owner list display</t>
-  </si>
-  <si>
-    <t>Check if groups with single owners are correctly displayed in the list</t>
-  </si>
-  <si>
-    <t>Verify that each group shows its privacy status (Private)</t>
-  </si>
-  <si>
-    <t>Confirm that "Action required" button appears for each single owner group</t>
-  </si>
-  <si>
-    <t>SOW-02</t>
-  </si>
-  <si>
-    <t>Validate action required functionality</t>
-  </si>
-  <si>
-    <t>Click the "Action required" button and verify it opens the add owner interface</t>
-  </si>
-  <si>
-    <t>Attempt to add a second owner and verify the process completes successfully</t>
-  </si>
-  <si>
-    <t>Verify the group disappears from single owner list after adding second owner</t>
-  </si>
-  <si>
-    <t>SOW-03</t>
-  </si>
-  <si>
-    <t>Test governance notification</t>
-  </si>
-  <si>
-    <t>Verify the instruction text displays correctly explaining Novartis groups governance</t>
-  </si>
-  <si>
-    <t>Confirm the instruction text states "at least two owners for each Group" requirement</t>
-  </si>
-  <si>
-    <t>Verify the instruction clearly indicates how to resolve the single owner issue</t>
-  </si>
-  <si>
-    <t>SOW-04</t>
-  </si>
-  <si>
-    <t>Test navigation and filtering</t>
-  </si>
-  <si>
-    <t>Verify navigation between different tabs (Teams, Engage, SharePoint, etc.) works properly</t>
-  </si>
-  <si>
-    <t>Check if the count indicators beside each tab update correctly</t>
-  </si>
-  <si>
-    <t>Test if filtering or searching for specific groups works as expected</t>
-  </si>
-  <si>
-    <t>SOW-05</t>
-  </si>
-  <si>
-    <t>Test responsive design</t>
-  </si>
-  <si>
-    <t>Verify the single owner list displays properly on different screen sizes</t>
-  </si>
-  <si>
-    <t>Test the "Action required" button functionality on mobile devices</t>
-  </si>
-  <si>
-    <t>Confirm that all text and elements are readable on smaller screens</t>
-  </si>
-  <si>
-    <t>Group Detail Popup</t>
-  </si>
-  <si>
-    <t>Verify Group Details popup appearance</t>
-  </si>
-  <si>
-    <t>Click the "Action required" button and check if the Group Details popup opens correctly</t>
-  </si>
-  <si>
-    <t>Verify the popup displays the correct group name (finsecapptool-qa)</t>
-  </si>
-  <si>
-    <t>Confirm the popup shows the group URL and classification information</t>
-  </si>
-  <si>
-    <t>Validate Group Information display</t>
-  </si>
-  <si>
-    <t>Verify the Title field displays the correct group name</t>
-  </si>
-  <si>
-    <t>Check if all required fields (Division, Function, Country) are present</t>
-  </si>
-  <si>
-    <t>Verify Data Type, Business Criticality, and Data Privacy fields are displayed</t>
-  </si>
-  <si>
-    <t>Confirm the current owner is correctly displayed in the Owners section</t>
-  </si>
-  <si>
-    <t>Test "Add Additional Owner" functionality</t>
-  </si>
-  <si>
-    <t>Click the "Add Additional Owner" button and verify it opens the owner selection interface</t>
-  </si>
-  <si>
-    <t>Verify the instruction "Please add additional owners from Owners section" is displayed</t>
-  </si>
-  <si>
-    <t>Test adding a new owner and verify they appear in the owners list</t>
-  </si>
-  <si>
-    <t>Verify that after adding a second owner, the group is removed from single owner list</t>
-  </si>
-  <si>
-    <t>Validate compliance information</t>
-  </si>
-  <si>
-    <t>Verify the compliance checkbox and its associated text is displayed</t>
-  </si>
-  <si>
-    <t>Check if all compliance links (Novartis classification guidelines, Global Data Privacy Principles, etc.) are functional</t>
-  </si>
-  <si>
-    <t>Verify the checkbox can be selected/deselected</t>
-  </si>
-  <si>
-    <t>Test Group Settings section</t>
-  </si>
-  <si>
-    <t>Verify External Sharing Updates section displays correctly</t>
-  </si>
-  <si>
-    <t>Test toggling "Enable and Access in Outlook (OWA)" option</t>
-  </si>
-  <si>
-    <t>Test toggling "Searchable in Outlook Address Book (GAL)" option</t>
-  </si>
-  <si>
-    <t>Verify information icons display helpful tooltips when clicked</t>
-  </si>
-  <si>
-    <t>SOW-06</t>
-  </si>
-  <si>
-    <t>Test Save and Delete functionality</t>
-  </si>
-  <si>
-    <t>Verify the Save button is enabled only after required changes are made</t>
-  </si>
-  <si>
-    <t>Test the Delete button functionality and confirm deletion prompt appears</t>
-  </si>
-  <si>
-    <t>Verify successful save operation after adding a second owner</t>
-  </si>
-  <si>
-    <t>Test cancellation of the popup using the X button in the top-right corner</t>
-  </si>
-  <si>
-    <t>People Search</t>
-  </si>
-  <si>
-    <t>PS-01</t>
-  </si>
-  <si>
-    <t>Search initialization and input validation</t>
-  </si>
-  <si>
-    <t>Verify the search field is visible and accepts user input</t>
-  </si>
-  <si>
-    <t>Test that search begins after entering at least 3 characters</t>
-  </si>
-  <si>
-    <t>Verify placeholder text is displayed when search field is empty</t>
-  </si>
-  <si>
-    <t>Test special characters and numbers in search field</t>
-  </si>
-  <si>
-    <t>PS-02</t>
-  </si>
-  <si>
-    <t>Search results display</t>
-  </si>
-  <si>
-    <t>Verify search results appear as dropdown below search field</t>
-  </si>
-  <si>
-    <t>Confirm user names and titles are displayed correctly in search results</t>
-  </si>
-  <si>
-    <t>Test that results update dynamically as more characters are typed</t>
-  </si>
-  <si>
-    <t>Verify search results are sorted in a logical order (alphabetical or relevance)</t>
-  </si>
-  <si>
-    <t>PS-03</t>
-  </si>
-  <si>
-    <t>User selection functionality</t>
-  </si>
-  <si>
-    <t>Click on a user from search results and verify user profile loads</t>
-  </si>
-  <si>
-    <t>Verify correct user information displays (matching the selected user)</t>
-  </si>
-  <si>
-    <t>Test selecting different users consecutively from search results</t>
-  </si>
-  <si>
-    <t>Verify the search field maintains the search term after user selection</t>
-  </si>
-  <si>
-    <t>PS-04</t>
-  </si>
-  <si>
-    <t>"See All" functionality</t>
-  </si>
-  <si>
-    <t>Verify "See All" option appears when multiple results are found</t>
-  </si>
-  <si>
-    <t>Click "See All" and confirm it opens a new users list screen</t>
-  </si>
-  <si>
-    <t>Test navigation back from users list screen to main search</t>
-  </si>
-  <si>
-    <t>Verify search term persists when navigating to and from users list</t>
-  </si>
-  <si>
-    <t>PS-05</t>
-  </si>
-  <si>
-    <t>User profile information display</t>
-  </si>
-  <si>
-    <t>Verify user profile shows correct name, title, and department</t>
-  </si>
-  <si>
-    <t>Confirm user profile displays all required fields (IDs, organizational details)</t>
-  </si>
-  <si>
-    <t>Test that profile tabs (Profile, Organization, Schedule) work correctly</t>
-  </si>
-  <si>
-    <t>Verify all user information sections display properly (User Information, Organizational Detail, etc.)</t>
-  </si>
-  <si>
-    <t>PS-06</t>
-  </si>
-  <si>
-    <t>Profile navigation and interaction</t>
-  </si>
-  <si>
-    <t>Test clicking on different tabs within the user profile</t>
-  </si>
-  <si>
-    <t>Verify contact information (email) is clickable and functions correctly</t>
-  </si>
-  <si>
-    <t>Test any interactive elements within the profile (links, buttons)</t>
-  </si>
-  <si>
-    <t>Verify professional skills and other skills sections display correctly</t>
-  </si>
-  <si>
-    <t>PS-07</t>
-  </si>
-  <si>
-    <t>Performance and responsiveness</t>
-  </si>
-  <si>
-    <t>Test search response time with various search terms</t>
-  </si>
-  <si>
-    <t>Verify profile loading time after selecting a user</t>
-  </si>
-  <si>
-    <t>Test behavior under poor network conditions</t>
-  </si>
-  <si>
-    <t>Verify the interface is responsive on different screen sizes</t>
-  </si>
-  <si>
-    <t>PS-08</t>
-  </si>
-  <si>
-    <t>Edge cases and error handling</t>
-  </si>
-  <si>
-    <t>Test search with no matching results</t>
-  </si>
-  <si>
-    <t>Verify appropriate message displays when no results are found</t>
-  </si>
-  <si>
-    <t>Test behavior when selecting a user with incomplete profile information</t>
-  </si>
-  <si>
-    <t>Verify system behavior when attempting to search while offline</t>
-  </si>
-  <si>
-    <t>Schedule Tab</t>
-  </si>
-  <si>
-    <t>SCH-01</t>
-  </si>
-  <si>
-    <t>Schedule tab navigation</t>
-  </si>
-  <si>
-    <t>Click on the Schedule tab and verify it becomes active</t>
-  </si>
-  <si>
-    <t>Verify the tab displays the user's schedule information correctly</t>
-  </si>
-  <si>
-    <t>Confirm switching between Profile, Organization, and Schedule tabs works properly</t>
-  </si>
-  <si>
-    <t>SCH-02</t>
-  </si>
-  <si>
-    <t>Date and timing display</t>
-  </si>
-  <si>
-    <t>Verify the date displays correctly (20-May-2025)</t>
-  </si>
-  <si>
-    <t>Confirm timing range displays properly (11:00 - 20:30)</t>
-  </si>
-  <si>
-    <t>Test date format consistency across different user profiles</t>
-  </si>
-  <si>
-    <t>SCH-03</t>
-  </si>
-  <si>
-    <t>Schedule grid visualization</t>
-  </si>
-  <si>
-    <t>Verify hourly time slots (1p, 2p, 3p, etc.) display correctly</t>
-  </si>
-  <si>
-    <t>Confirm color-coding legend appears and matches schedule blocks (Free, Busy, OOF, etc.)</t>
-  </si>
-  <si>
-    <t>Test that schedule blocks accurately reflect the user's availability</t>
-  </si>
-  <si>
-    <t>SCH-04</t>
-  </si>
-  <si>
-    <t>Schedule status indicators</t>
-  </si>
-  <si>
-    <t>Verify "Free" status is correctly color-coded and displayed</t>
-  </si>
-  <si>
-    <t>Test "OOF" (Out of Office) status displays with proper color</t>
-  </si>
-  <si>
-    <t>Confirm "Working Outside" status shows with correct indicator</t>
-  </si>
-  <si>
-    <t>Verify "Tentative" and "Unknown" statuses display properly</t>
-  </si>
-  <si>
-    <t>SCH-05</t>
-  </si>
-  <si>
-    <t>Time slot interaction</t>
-  </si>
-  <si>
-    <t>Click on different time slots and verify any popup or details that appear</t>
-  </si>
-  <si>
-    <t>Test hovering over scheduled blocks to see additional information</t>
-  </si>
-  <si>
-    <t>Verify interaction with occupied time slots shows meeting/event details</t>
-  </si>
-  <si>
-    <t>SCH-06</t>
-  </si>
-  <si>
-    <t>Schedule navigation</t>
-  </si>
-  <si>
-    <t>Test navigation to different days (if available)</t>
-  </si>
-  <si>
-    <t>Verify any date selection functionality works correctly</t>
-  </si>
-  <si>
-    <t>Test scrolling through longer schedules if applicable</t>
-  </si>
-  <si>
-    <t>SCH-07</t>
-  </si>
-  <si>
-    <t>Schedule refresh functionality</t>
-  </si>
-  <si>
-    <t>Test any refresh button or auto-refresh functionality</t>
-  </si>
-  <si>
-    <t>Verify schedule updates when changes are made elsewhere</t>
-  </si>
-  <si>
-    <t>Confirm real-time updates appear correctly</t>
-  </si>
-  <si>
-    <t>SCH-08</t>
-  </si>
-  <si>
-    <t>Responsive design</t>
-  </si>
-  <si>
-    <t>Test schedule display on different screen sizes</t>
-  </si>
-  <si>
-    <t>Verify time slot labels remain visible when resizing</t>
-  </si>
-  <si>
-    <t>Confirm color legend remains accessible on smaller screens</t>
-  </si>
-  <si>
-    <t>SCH-09</t>
-  </si>
-  <si>
-    <t>Accessibility features</t>
-  </si>
-  <si>
-    <t>Test keyboard navigation through schedule grid</t>
-  </si>
-  <si>
-    <t>Verify screen reader compatibility with schedule elements</t>
-  </si>
-  <si>
-    <t>Confirm color contrast meets accessibility standards</t>
-  </si>
-  <si>
-    <t>SCH-10</t>
-  </si>
-  <si>
-    <t>Integration with calendar systems</t>
-  </si>
-  <si>
-    <t>Verify schedule reflects updates from connected calendar systems</t>
-  </si>
-  <si>
-    <t>Test synchronization timing between systems</t>
-  </si>
-  <si>
-    <t>Confirm schedule accuracy compared to source calendar</t>
-  </si>
-  <si>
-    <t>See All User list</t>
-  </si>
-  <si>
-    <t>SA-01</t>
-  </si>
-  <si>
-    <t>"See All" button visibility</t>
-  </si>
-  <si>
-    <t>Verify "See All" button appears when multiple search results are found</t>
-  </si>
-  <si>
-    <t>Test "See All" button visibility threshold (minimum number of results needed)</t>
-  </si>
-  <si>
-    <t>Confirm "See All" button is properly styled and positioned</t>
-  </si>
-  <si>
-    <t>SA-02</t>
-  </si>
-  <si>
-    <t>"See All" navigation functionality</t>
-  </si>
-  <si>
-    <t>Click "See All" button and verify it opens the complete search results list page</t>
-  </si>
-  <si>
-    <t>Confirm the search term is maintained when navigating to full results page</t>
-  </si>
-  <si>
-    <t>Test back navigation from full results page to main search</t>
-  </si>
-  <si>
-    <t>SA-03</t>
-  </si>
-  <si>
-    <t>Complete search results list display</t>
-  </si>
-  <si>
-    <t>Verify all matching results appear in the full search results list</t>
-  </si>
-  <si>
-    <t>Confirm user information (ID, name, Gen tag) displays correctly for each result</t>
-  </si>
-  <si>
-    <t>Test that contact icons (email, phone) are visible for each user in the list</t>
-  </si>
-  <si>
-    <t>SA-04</t>
-  </si>
-  <si>
-    <t>Pagination functionality</t>
-  </si>
-  <si>
-    <t>Verify pagination controls (1, 2, 3, 4, 5, ..., 10, &gt;) appear when results exceed page limit</t>
-  </si>
-  <si>
-    <t>Test navigation between pages using pagination controls</t>
-  </si>
-  <si>
-    <t>Confirm current page is highlighted in pagination controls</t>
-  </si>
-  <si>
-    <t>Test the "&gt;" button navigates to the next page of results</t>
-  </si>
-  <si>
-    <t>SA-05</t>
-  </si>
-  <si>
-    <t>User selection from full results list</t>
-  </si>
-  <si>
-    <t>Click on a user from the full results list and verify correct profile loads</t>
-  </si>
-  <si>
-    <t>Test selecting users from different pages of the results</t>
-  </si>
-  <si>
-    <t>Verify contact icons (email, phone) functionality for each user</t>
-  </si>
-  <si>
-    <t>SA-06</t>
-  </si>
-  <si>
-    <t>Search refinement from full results page</t>
-  </si>
-  <si>
-    <t>Test ability to modify search term from the full results page</t>
-  </si>
-  <si>
-    <t>Verify results update dynamically when search term is modified</t>
-  </si>
-  <si>
-    <t>Confirm search field retains focus after search refinement</t>
-  </si>
-  <si>
-    <t>SA-07</t>
-  </si>
-  <si>
-    <t>Test loading time of full results page with various result quantities</t>
-  </si>
-  <si>
-    <t>Verify scrolling performance with large result sets</t>
-  </si>
-  <si>
-    <t>Test responsiveness of full results page on different screen sizes</t>
-  </si>
-  <si>
-    <t>SA-08</t>
-  </si>
-  <si>
-    <t>Visual consistency</t>
-  </si>
-  <si>
-    <t>Verify consistent formatting of user entries across all pages</t>
-  </si>
-  <si>
-    <t>Confirm user avatars/icons display properly for all results</t>
-  </si>
-  <si>
-    <t>Test visual alignment of all elements in the results list</t>
-  </si>
-  <si>
-    <t>SA-09</t>
-  </si>
-  <si>
-    <t>Filtering and sorting options</t>
-  </si>
-  <si>
-    <t>Test any available filtering options on the full results page</t>
-  </si>
-  <si>
-    <t>Verify sorting functionality if available (alphabetical, relevance)</t>
-  </si>
-  <si>
-    <t>Confirm filter/sort settings persist when navigating between pages</t>
-  </si>
-  <si>
-    <t>SA-10</t>
-  </si>
-  <si>
-    <t>Test keyboard navigation through the full results list</t>
-  </si>
-  <si>
-    <t>Verify screen reader compatibility with search results</t>
-  </si>
-  <si>
-    <t>Test focus indicators for interactive elements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1698,12 +1075,6 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="FkGrotesk"/>
-    </font>
-    <font>
-      <sz val="9.6"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1746,7 +1117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1761,15 +1132,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2348,12 +1710,12 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1">
       <c r="A20" s="5"/>
@@ -2723,20 +2085,20 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1">
       <c r="A52" s="5"/>
@@ -2882,12 +2244,12 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" customHeight="1">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1">
       <c r="A65" s="5"/>
@@ -2963,12 +2325,12 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
     </row>
     <row r="73" spans="1:4" ht="30" customHeight="1">
       <c r="A73" s="5"/>
@@ -3114,12 +2476,12 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
     </row>
     <row r="86" spans="1:4" ht="30" customHeight="1">
       <c r="A86" s="5"/>
@@ -3225,8 +2587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8152F7A3-683F-4DE9-9E4A-6D3FF8595106}">
   <dimension ref="A2:D56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -3238,12 +2600,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="30" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
       <c r="A3" s="5"/>
@@ -3459,12 +2821,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1">
       <c r="A21" s="5"/>
@@ -3624,12 +2986,12 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1">
       <c r="A35" s="5"/>
@@ -3761,12 +3123,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1">
       <c r="A47" s="5"/>
@@ -3906,1562 +3268,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4391A413-443A-4C1A-B7D5-FDCAEB1AF2EC}">
-  <dimension ref="A1:D57"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:D57"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="27.6">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="55.8" thickBot="1">
-      <c r="A5" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" ht="83.4" thickBot="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" ht="124.8" thickBot="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="69.599999999999994" thickBot="1">
-      <c r="A9" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="111" thickBot="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="124.8" thickBot="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="124.8" thickBot="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" ht="55.8" thickBot="1">
-      <c r="A13" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" ht="138.6" thickBot="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" ht="152.4" thickBot="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" ht="124.8" thickBot="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" ht="55.8" thickBot="1">
-      <c r="A17" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="138.6" thickBot="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" ht="42" thickBot="1">
-      <c r="A21" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" ht="124.8" thickBot="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" ht="111" thickBot="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" ht="110.4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="27.6">
-      <c r="A29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="83.4" thickBot="1">
-      <c r="A30" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" ht="138.6" thickBot="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" ht="111" thickBot="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" ht="124.8" thickBot="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" ht="55.8" thickBot="1">
-      <c r="A34" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" ht="83.4" thickBot="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" ht="111" thickBot="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" ht="111" thickBot="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:4" ht="69.599999999999994" thickBot="1">
-      <c r="A39" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:4" ht="138.6" thickBot="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="1:4" ht="138.6" thickBot="1">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" ht="111" thickBot="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:4" ht="124.8" thickBot="1">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="1:4" ht="55.8" thickBot="1">
-      <c r="A44" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:4" ht="180" thickBot="1">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:4" ht="69.599999999999994" thickBot="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="1:4" ht="42" thickBot="1">
-      <c r="A48" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" spans="1:4" ht="124.8" thickBot="1">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:4" ht="111" thickBot="1">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="1:4" ht="55.8" thickBot="1">
-      <c r="A53" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-    </row>
-    <row r="54" spans="1:4" ht="111" thickBot="1">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-    </row>
-    <row r="55" spans="1:4" ht="124.8" thickBot="1">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-    </row>
-    <row r="56" spans="1:4" ht="111" thickBot="1">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:4" ht="124.2">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11378C6-8788-4669-AA1D-80C5F6C80A2E}">
-  <dimension ref="A1:D140"/>
-  <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:D140"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="27.6">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="55.8" thickBot="1">
-      <c r="A4" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" ht="83.4" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" ht="69.599999999999994" thickBot="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="42" thickBot="1">
-      <c r="A9" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="111" thickBot="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" ht="124.8" thickBot="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" ht="55.8" thickBot="1">
-      <c r="A14" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" ht="124.8" thickBot="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" ht="111" thickBot="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" ht="42" thickBot="1">
-      <c r="A19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" ht="83.4" thickBot="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" ht="124.8" thickBot="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" ht="55.8" thickBot="1">
-      <c r="A24" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" ht="111" thickBot="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" ht="111" thickBot="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" ht="166.2" thickBot="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" ht="55.8" thickBot="1">
-      <c r="A29" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" ht="83.4" thickBot="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" ht="111" thickBot="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" ht="111" thickBot="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" ht="55.8" thickBot="1">
-      <c r="A34" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" ht="83.4" thickBot="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" ht="83.4" thickBot="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" ht="69.599999999999994" thickBot="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:4" ht="42" thickBot="1">
-      <c r="A39" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:4" ht="55.8" thickBot="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" ht="124.8" thickBot="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:4" ht="110.4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="27.6">
-      <c r="A50" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="42" thickBot="1">
-      <c r="A51" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-    </row>
-    <row r="54" spans="1:4" ht="124.8" thickBot="1">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-    </row>
-    <row r="55" spans="1:4" ht="42" thickBot="1">
-      <c r="A55" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-    </row>
-    <row r="56" spans="1:4" ht="83.4" thickBot="1">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-    </row>
-    <row r="59" spans="1:4" ht="55.8" thickBot="1">
-      <c r="A59" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-    </row>
-    <row r="61" spans="1:4" ht="152.4" thickBot="1">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-    </row>
-    <row r="62" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-    </row>
-    <row r="63" spans="1:4" ht="42" thickBot="1">
-      <c r="A63" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-    </row>
-    <row r="65" spans="1:4" ht="111" thickBot="1">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-    </row>
-    <row r="66" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-    </row>
-    <row r="68" spans="1:4" ht="28.2" thickBot="1">
-      <c r="A68" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-    </row>
-    <row r="69" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-    </row>
-    <row r="70" spans="1:4" ht="124.8" thickBot="1">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-    </row>
-    <row r="71" spans="1:4" ht="111" thickBot="1">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-    </row>
-    <row r="72" spans="1:4" ht="28.2" thickBot="1">
-      <c r="A72" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-    </row>
-    <row r="73" spans="1:4" ht="69.599999999999994" thickBot="1">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-    </row>
-    <row r="74" spans="1:4" ht="83.4" thickBot="1">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-    </row>
-    <row r="75" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-    </row>
-    <row r="76" spans="1:4" ht="55.8" thickBot="1">
-      <c r="A76" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-    </row>
-    <row r="77" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-    </row>
-    <row r="78" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-    </row>
-    <row r="79" spans="1:4" ht="69.599999999999994" thickBot="1">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-    </row>
-    <row r="80" spans="1:4" ht="28.2" thickBot="1">
-      <c r="A80" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-    </row>
-    <row r="81" spans="1:4" ht="83.4" thickBot="1">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-    </row>
-    <row r="82" spans="1:4" ht="83.4" thickBot="1">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-    </row>
-    <row r="83" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-    </row>
-    <row r="84" spans="1:4" ht="28.2" thickBot="1">
-      <c r="A84" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-    </row>
-    <row r="85" spans="1:4" ht="83.4" thickBot="1">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-    </row>
-    <row r="86" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-    </row>
-    <row r="87" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-    </row>
-    <row r="88" spans="1:4" ht="55.8" thickBot="1">
-      <c r="A88" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-    </row>
-    <row r="89" spans="1:4" ht="111" thickBot="1">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-    </row>
-    <row r="90" spans="1:4" ht="83.4" thickBot="1">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-    </row>
-    <row r="91" spans="1:4" ht="82.8">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="27.6">
-      <c r="A99" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="42" thickBot="1">
-      <c r="A100" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-    </row>
-    <row r="101" spans="1:4" ht="111" thickBot="1">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-    </row>
-    <row r="102" spans="1:4" ht="111" thickBot="1">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-    </row>
-    <row r="103" spans="1:4" ht="83.4" thickBot="1">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-    </row>
-    <row r="104" spans="1:4" ht="55.8" thickBot="1">
-      <c r="A104" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-    </row>
-    <row r="105" spans="1:4" ht="124.8" thickBot="1">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-    </row>
-    <row r="106" spans="1:4" ht="124.8" thickBot="1">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-    </row>
-    <row r="107" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-    </row>
-    <row r="108" spans="1:4" ht="55.8" thickBot="1">
-      <c r="A108" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-    </row>
-    <row r="109" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-    </row>
-    <row r="110" spans="1:4" ht="138.6" thickBot="1">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-    </row>
-    <row r="111" spans="1:4" ht="111" thickBot="1">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-    </row>
-    <row r="112" spans="1:4" ht="42" thickBot="1">
-      <c r="A112" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-    </row>
-    <row r="113" spans="1:4" ht="138.6" thickBot="1">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-    </row>
-    <row r="114" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-    </row>
-    <row r="115" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-    </row>
-    <row r="116" spans="1:4" ht="83.4" thickBot="1">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-    </row>
-    <row r="117" spans="1:4" ht="55.8" thickBot="1">
-      <c r="A117" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-    </row>
-    <row r="118" spans="1:4" ht="111" thickBot="1">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-    </row>
-    <row r="119" spans="1:4" ht="83.4" thickBot="1">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-    </row>
-    <row r="120" spans="1:4" ht="111" thickBot="1">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-    </row>
-    <row r="121" spans="1:4" ht="69.599999999999994" thickBot="1">
-      <c r="A121" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-    </row>
-    <row r="122" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-    </row>
-    <row r="123" spans="1:4" ht="111" thickBot="1">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-    </row>
-    <row r="124" spans="1:4" ht="83.4" thickBot="1">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-    </row>
-    <row r="125" spans="1:4" ht="55.8" thickBot="1">
-      <c r="A125" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-    </row>
-    <row r="126" spans="1:4" ht="111" thickBot="1">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-    </row>
-    <row r="127" spans="1:4" ht="83.4" thickBot="1">
-      <c r="A127" s="7"/>
-      <c r="B127" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-    </row>
-    <row r="128" spans="1:4" ht="111" thickBot="1">
-      <c r="A128" s="7"/>
-      <c r="B128" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-    </row>
-    <row r="129" spans="1:4" ht="42" thickBot="1">
-      <c r="A129" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-    </row>
-    <row r="130" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A130" s="7"/>
-      <c r="B130" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-    </row>
-    <row r="131" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A131" s="7"/>
-      <c r="B131" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-    </row>
-    <row r="132" spans="1:4" ht="83.4" thickBot="1">
-      <c r="A132" s="7"/>
-      <c r="B132" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-    </row>
-    <row r="133" spans="1:4" ht="42" thickBot="1">
-      <c r="A133" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-    </row>
-    <row r="134" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A134" s="7"/>
-      <c r="B134" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-    </row>
-    <row r="135" spans="1:4" ht="111" thickBot="1">
-      <c r="A135" s="7"/>
-      <c r="B135" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-    </row>
-    <row r="136" spans="1:4" ht="111" thickBot="1">
-      <c r="A136" s="7"/>
-      <c r="B136" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-    </row>
-    <row r="137" spans="1:4" ht="28.2" thickBot="1">
-      <c r="A137" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-    </row>
-    <row r="138" spans="1:4" ht="83.4" thickBot="1">
-      <c r="A138" s="7"/>
-      <c r="B138" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-    </row>
-    <row r="139" spans="1:4" ht="97.2" thickBot="1">
-      <c r="A139" s="7"/>
-      <c r="B139" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-    </row>
-    <row r="140" spans="1:4" ht="69">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8" t="s">
-        <v>540</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>